--- a/biology/Botanique/Parasenecio_forrestii/Parasenecio_forrestii.xlsx
+++ b/biology/Botanique/Parasenecio_forrestii/Parasenecio_forrestii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parasenecio forrestii est une espèce de plante à fleurs du genre Parasenecio appartenant à la famille des Asteraceae que l'on trouve en Chine au sud-ouest du Sichuan et au Yunnan. Elle doit son nom au botaniste écossais George Forrest (1873-1932) qui la découvrit au Yunnan.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonyme
 Cacalia forrestii (W.W.Sm. &amp; Small) Hand.-Mazz.</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parasenecio forrestii est une plante herbacée. Elle possède des tiges solitaires de 60 cm à 80 cm de hauteur, striées et densément glandulaires. Elles sont pubescentes à la base avec des branches paniculées au sommet.
 Ses inflorescences présentent 10 à 16 fleurs aux corolles d'un blanc roseâtre qui fleurissent en août et fructifient en septembre-octobre.
@@ -575,7 +591,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parasenecio forrestii croît dans les sous-bois ombragés des pentes montagneuses du Yunnan et du sud-ouest du Sichuan entre 2 300 mètres et 3 700 mètres d'altitude.
 </t>
